--- a/data_processed/20250721/BTCUSDVOLSURFACE_REGULARIZED_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDVOLSURFACE_REGULARIZED_20250721.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17026,7 +17026,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17374,7 +17374,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -29033,7 +29033,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44619,7 +44619,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45342,7 +45342,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -45371,7 +45371,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47320,7 +47320,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48317,7 +48317,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48491,7 +48491,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -49381,7 +49381,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -49468,7 +49468,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -49526,7 +49526,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -49696,7 +49696,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -52845,7 +52845,7 @@
       </c>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250721/BTCUSDVOLSURFACE_REGULARIZED_20250721.xlsx
+++ b/data_processed/20250721/BTCUSDVOLSURFACE_REGULARIZED_20250721.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -17026,7 +17026,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17258,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17345,7 +17345,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -17374,7 +17374,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -17606,7 +17606,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -29033,7 +29033,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -29178,7 +29178,7 @@
       </c>
       <c r="G1097" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29207,7 +29207,7 @@
       </c>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44416,7 +44416,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44503,7 +44503,7 @@
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44532,7 +44532,7 @@
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44619,7 +44619,7 @@
       </c>
       <c r="G1710" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45147,7 +45147,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45313,7 +45313,7 @@
       </c>
       <c r="G1736" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45342,7 +45342,7 @@
       </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -45371,7 +45371,7 @@
       </c>
       <c r="G1738" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45541,7 +45541,7 @@
       </c>
       <c r="G1744" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45707,7 +45707,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46493,7 +46493,7 @@
       </c>
       <c r="G1780" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46771,7 +46771,7 @@
       </c>
       <c r="G1790" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47320,7 +47320,7 @@
       </c>
       <c r="G1811" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -47349,7 +47349,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47577,7 +47577,7 @@
       </c>
       <c r="G1820" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48114,7 +48114,7 @@
       </c>
       <c r="G1841" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48288,7 +48288,7 @@
       </c>
       <c r="G1847" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48317,7 +48317,7 @@
       </c>
       <c r="G1848" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -48346,7 +48346,7 @@
       </c>
       <c r="G1849" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48375,7 +48375,7 @@
       </c>
       <c r="G1850" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48433,7 +48433,7 @@
       </c>
       <c r="G1852" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48491,7 +48491,7 @@
       </c>
       <c r="G1854" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -48603,7 +48603,7 @@
       </c>
       <c r="G1858" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -49352,7 +49352,7 @@
       </c>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49381,7 +49381,7 @@
       </c>
       <c r="G1888" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -49468,7 +49468,7 @@
       </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -49526,7 +49526,7 @@
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -49696,7 +49696,7 @@
       </c>
       <c r="G1899" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -52845,7 +52845,7 @@
       </c>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
